--- a/output/XP_30869315000130.xlsx
+++ b/output/XP_30869315000130.xlsx
@@ -713,10 +713,10 @@
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.11712104</v>
+        <v>0.12143883</v>
       </c>
       <c r="C30">
-        <v>0.1045936446491775</v>
+        <v>0.1088630149520857</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_30869315000130.xlsx
+++ b/output/XP_30869315000130.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP LONG BIASED ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43312</v>
       </c>
@@ -411,312 +405,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43343</v>
       </c>
       <c r="B3">
         <v>-0.08095772999999995</v>
       </c>
-      <c r="C3">
-        <v>-0.08095772999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43373</v>
       </c>
       <c r="B4">
-        <v>-0.07749530999999998</v>
-      </c>
-      <c r="C4">
         <v>0.003767421927176384</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43404</v>
       </c>
       <c r="B5">
-        <v>0.05110302</v>
-      </c>
-      <c r="C5">
         <v>0.139401275022244</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43434</v>
       </c>
       <c r="B6">
-        <v>0.05895041999999995</v>
-      </c>
-      <c r="C6">
         <v>0.007465871423335768</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43465</v>
       </c>
       <c r="B7">
-        <v>0.06984433999999995</v>
-      </c>
-      <c r="C7">
         <v>0.01028746936046354</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43496</v>
       </c>
       <c r="B8">
-        <v>0.15827836</v>
-      </c>
-      <c r="C8">
         <v>0.0826606420145195</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43524</v>
       </c>
       <c r="B9">
-        <v>0.14150274</v>
-      </c>
-      <c r="C9">
         <v>-0.01448323700012832</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43555</v>
       </c>
       <c r="B10">
-        <v>0.11731717</v>
-      </c>
-      <c r="C10">
         <v>-0.02118748308917773</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43585</v>
       </c>
       <c r="B11">
-        <v>0.13840086</v>
-      </c>
-      <c r="C11">
         <v>0.01886992392679332</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43616</v>
       </c>
       <c r="B12">
-        <v>0.1609866</v>
-      </c>
-      <c r="C12">
         <v>0.01983988311463514</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43646</v>
       </c>
       <c r="B13">
-        <v>0.2017068099999999</v>
-      </c>
-      <c r="C13">
         <v>0.03507379844005087</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43677</v>
       </c>
       <c r="B14">
-        <v>0.2126816</v>
-      </c>
-      <c r="C14">
         <v>0.009132668558315071</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43708</v>
       </c>
       <c r="B15">
-        <v>0.22994289</v>
-      </c>
-      <c r="C15">
         <v>0.01423398359470451</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43738</v>
       </c>
       <c r="B16">
-        <v>0.2476328299999999</v>
-      </c>
-      <c r="C16">
         <v>0.01438273284379887</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>0.2608009600000001</v>
-      </c>
-      <c r="C17">
         <v>0.01055449142036458</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43799</v>
       </c>
       <c r="B18">
-        <v>0.29246387</v>
-      </c>
-      <c r="C18">
         <v>0.02511332954568801</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43830</v>
       </c>
       <c r="B19">
-        <v>0.3939741000000001</v>
-      </c>
-      <c r="C19">
         <v>0.07854009102784443</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43861</v>
       </c>
       <c r="B20">
-        <v>0.4430061000000001</v>
-      </c>
-      <c r="C20">
         <v>0.03517425467230706</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43890</v>
       </c>
       <c r="B21">
-        <v>0.34969033</v>
-      </c>
-      <c r="C21">
         <v>-0.06466761990819025</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>-0.24117911</v>
-      </c>
-      <c r="C22">
         <v>-0.4377814872541912</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>-0.12641247</v>
-      </c>
-      <c r="C23">
         <v>0.151243384983774</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43982</v>
       </c>
       <c r="B24">
-        <v>-0.04286190999999995</v>
-      </c>
-      <c r="C24">
         <v>0.09564074249091004</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44012</v>
       </c>
       <c r="B25">
-        <v>0.02125215000000003</v>
-      </c>
-      <c r="C25">
         <v>0.06698517243211999</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44043</v>
       </c>
       <c r="B26">
-        <v>0.1268191299999999</v>
-      </c>
-      <c r="C26">
         <v>0.103370142231769</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44074</v>
       </c>
       <c r="B27">
-        <v>0.1241808799999999</v>
-      </c>
-      <c r="C27">
         <v>-0.002341325177892539</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
       <c r="B28">
-        <v>0.03721382000000006</v>
-      </c>
-      <c r="C28">
         <v>-0.07736037994170464</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44135</v>
       </c>
       <c r="B29">
-        <v>0.01134118000000006</v>
-      </c>
-      <c r="C29">
         <v>-0.0249443648947909</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.12143883</v>
-      </c>
-      <c r="C30">
-        <v>0.1088630149520857</v>
+        <v>0.07693333519752432</v>
       </c>
     </row>
   </sheetData>
